--- a/WatanyaPingTester/bin/Debug/data/test.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fahim\C#\Pingo\WatanyaPingTester\bin\Debug\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12345"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
   <si>
     <t>10.0.10.101</t>
   </si>
@@ -302,6 +307,18 @@
   </si>
   <si>
     <t>192.168.1.187</t>
+  </si>
+  <si>
+    <t>192.168.1.160</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>192.168.1.162</t>
+  </si>
+  <si>
+    <t>192.168.1.170</t>
   </si>
 </sst>
 </file>
@@ -312,7 +329,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -321,7 +338,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,6 +384,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,23 +679,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
+    <col min="1" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -695,7 +715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -715,7 +735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -735,7 +755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -755,7 +775,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -776,7 +796,7 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -796,7 +816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -816,7 +836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -824,19 +844,19 @@
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -844,48 +864,48 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
@@ -893,10 +913,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -904,39 +924,39 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -944,39 +964,39 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>54</v>
@@ -993,10 +1013,10 @@
         <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1004,99 +1024,99 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1104,119 +1124,119 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -1224,247 +1244,247 @@
         <v>62</v>
       </c>
       <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="D37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>55</v>
@@ -1476,55 +1496,55 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
@@ -1536,175 +1556,175 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>85</v>
       </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
         <v>88</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>55</v>
@@ -1716,115 +1736,115 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
         <v>92</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>94</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>55</v>
@@ -1832,79 +1852,79 @@
       <c r="E58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>55</v>
@@ -1912,7 +1932,87 @@
       <c r="E62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
